--- a/code/content/TOPIC_XLSX/단어빈도수_3.xlsx
+++ b/code/content/TOPIC_XLSX/단어빈도수_3.xlsx
@@ -22,304 +22,304 @@
     <t>빈도수</t>
   </si>
   <si>
-    <t>버스</t>
-  </si>
-  <si>
-    <t>노선</t>
-  </si>
-  <si>
-    <t>것</t>
-  </si>
-  <si>
-    <t>선</t>
-  </si>
-  <si>
-    <t>퇴근</t>
-  </si>
-  <si>
-    <t>출근</t>
-  </si>
-  <si>
-    <t>역</t>
-  </si>
-  <si>
-    <t>정류장</t>
+    <t>식당</t>
+  </si>
+  <si>
+    <t>메뉴</t>
   </si>
   <si>
     <t>없</t>
   </si>
   <si>
-    <t>통근</t>
-  </si>
-  <si>
-    <t>운행</t>
+    <t>밥</t>
+  </si>
+  <si>
+    <t>음식</t>
+  </si>
+  <si>
+    <t>식단</t>
+  </si>
+  <si>
+    <t>좋</t>
+  </si>
+  <si>
+    <t>오늘</t>
+  </si>
+  <si>
+    <t>식사</t>
+  </si>
+  <si>
+    <t>맛있</t>
+  </si>
+  <si>
+    <t>중앙</t>
+  </si>
+  <si>
+    <t>배식</t>
+  </si>
+  <si>
+    <t>맛</t>
+  </si>
+  <si>
+    <t>사람</t>
+  </si>
+  <si>
+    <t>반찬</t>
+  </si>
+  <si>
+    <t>복지관</t>
+  </si>
+  <si>
+    <t>식</t>
+  </si>
+  <si>
+    <t>분</t>
   </si>
   <si>
     <t>시간</t>
   </si>
   <si>
-    <t>수</t>
+    <t>아침</t>
+  </si>
+  <si>
+    <t>많</t>
+  </si>
+  <si>
+    <t>생각</t>
+  </si>
+  <si>
+    <t>개선</t>
+  </si>
+  <si>
+    <t>감사</t>
+  </si>
+  <si>
+    <t>글</t>
+  </si>
+  <si>
+    <t>국</t>
+  </si>
+  <si>
+    <t>라면</t>
+  </si>
+  <si>
+    <t>점심</t>
+  </si>
+  <si>
+    <t>주세</t>
   </si>
   <si>
     <t>이용</t>
   </si>
   <si>
-    <t>위치</t>
-  </si>
-  <si>
-    <t>같</t>
-  </si>
-  <si>
-    <t>정차</t>
+    <t>김치</t>
+  </si>
+  <si>
+    <t>말</t>
+  </si>
+  <si>
+    <t>중식</t>
+  </si>
+  <si>
+    <t>그렇</t>
+  </si>
+  <si>
+    <t>신경</t>
+  </si>
+  <si>
+    <t>청운</t>
+  </si>
+  <si>
+    <t>안</t>
+  </si>
+  <si>
+    <t>아주머니</t>
+  </si>
+  <si>
+    <t>정도</t>
+  </si>
+  <si>
+    <t>부탁</t>
+  </si>
+  <si>
+    <t>중</t>
   </si>
   <si>
     <t>청주</t>
   </si>
   <si>
+    <t>영양사</t>
+  </si>
+  <si>
+    <t>전</t>
+  </si>
+  <si>
+    <t>기분</t>
+  </si>
+  <si>
+    <t>이렇</t>
+  </si>
+  <si>
+    <t>기호</t>
+  </si>
+  <si>
+    <t>관련</t>
+  </si>
+  <si>
+    <t>앞</t>
+  </si>
+  <si>
+    <t>조식</t>
+  </si>
+  <si>
+    <t>요즘</t>
+  </si>
+  <si>
+    <t>업체</t>
+  </si>
+  <si>
+    <t>기숙사</t>
+  </si>
+  <si>
+    <t>물</t>
+  </si>
+  <si>
+    <t>고담</t>
+  </si>
+  <si>
+    <t>주말</t>
+  </si>
+  <si>
+    <t>금일</t>
+  </si>
+  <si>
+    <t>한식</t>
+  </si>
+  <si>
+    <t>야식</t>
+  </si>
+  <si>
+    <t>저녁</t>
+  </si>
+  <si>
+    <t>그릇</t>
+  </si>
+  <si>
+    <t>석식</t>
+  </si>
+  <si>
+    <t>건의</t>
+  </si>
+  <si>
+    <t>경우</t>
+  </si>
+  <si>
+    <t>데</t>
+  </si>
+  <si>
+    <t>회사</t>
+  </si>
+  <si>
+    <t>일</t>
+  </si>
+  <si>
+    <t>문제</t>
+  </si>
+  <si>
+    <t>수고</t>
+  </si>
+  <si>
+    <t>위생</t>
+  </si>
+  <si>
+    <t>직원</t>
+  </si>
+  <si>
+    <t>볶음</t>
+  </si>
+  <si>
+    <t>후</t>
+  </si>
+  <si>
+    <t>안녕</t>
+  </si>
+  <si>
+    <t>번</t>
+  </si>
+  <si>
+    <t>빵</t>
+  </si>
+  <si>
+    <t>고기</t>
+  </si>
+  <si>
+    <t>조리</t>
+  </si>
+  <si>
+    <t>제공</t>
+  </si>
+  <si>
+    <t>친절</t>
+  </si>
+  <si>
+    <t>준비</t>
+  </si>
+  <si>
+    <t>양</t>
+  </si>
+  <si>
     <t>시</t>
   </si>
   <si>
-    <t>앞</t>
-  </si>
-  <si>
-    <t>부탁</t>
-  </si>
-  <si>
-    <t>문의</t>
-  </si>
-  <si>
-    <t>분</t>
-  </si>
-  <si>
-    <t>셔틀</t>
-  </si>
-  <si>
-    <t>이천</t>
-  </si>
-  <si>
-    <t>하차</t>
-  </si>
-  <si>
-    <t>잠실</t>
-  </si>
-  <si>
-    <t>탑승</t>
-  </si>
-  <si>
-    <t>변경</t>
-  </si>
-  <si>
-    <t>구리</t>
-  </si>
-  <si>
-    <t>감사</t>
-  </si>
-  <si>
-    <t>요청</t>
-  </si>
-  <si>
-    <t>안녕</t>
-  </si>
-  <si>
-    <t>많</t>
+    <t>다르</t>
+  </si>
+  <si>
+    <t>하세</t>
+  </si>
+  <si>
+    <t>터</t>
+  </si>
+  <si>
+    <t>답변</t>
+  </si>
+  <si>
+    <t>층</t>
+  </si>
+  <si>
+    <t>영양</t>
+  </si>
+  <si>
+    <t>관리</t>
+  </si>
+  <si>
+    <t>어제</t>
   </si>
   <si>
     <t>확인</t>
   </si>
   <si>
-    <t>경우</t>
-  </si>
-  <si>
-    <t>건의</t>
-  </si>
-  <si>
-    <t>출발</t>
-  </si>
-  <si>
-    <t>분당</t>
-  </si>
-  <si>
-    <t>사람</t>
-  </si>
-  <si>
-    <t>관련</t>
-  </si>
-  <si>
-    <t>추가</t>
-  </si>
-  <si>
-    <t>태</t>
-  </si>
-  <si>
-    <t>지역</t>
-  </si>
-  <si>
-    <t>출퇴근</t>
-  </si>
-  <si>
-    <t>신설</t>
-  </si>
-  <si>
-    <t>쪽</t>
-  </si>
-  <si>
-    <t>좋</t>
-  </si>
-  <si>
-    <t>사항</t>
-  </si>
-  <si>
-    <t>거</t>
-  </si>
-  <si>
-    <t>차</t>
-  </si>
-  <si>
-    <t>아파트</t>
-  </si>
-  <si>
-    <t>곳</t>
-  </si>
-  <si>
-    <t>검토</t>
-  </si>
-  <si>
-    <t>천호</t>
-  </si>
-  <si>
-    <t>교대</t>
-  </si>
-  <si>
-    <t>때</t>
-  </si>
-  <si>
-    <t>노</t>
-  </si>
-  <si>
-    <t>공지</t>
-  </si>
-  <si>
-    <t>회사</t>
-  </si>
-  <si>
-    <t>수고</t>
-  </si>
-  <si>
-    <t>현재</t>
-  </si>
-  <si>
-    <t>도착</t>
-  </si>
-  <si>
-    <t>평일</t>
-  </si>
-  <si>
-    <t>불편</t>
-  </si>
-  <si>
-    <t>생각</t>
-  </si>
-  <si>
-    <t>서울</t>
-  </si>
-  <si>
-    <t>번호</t>
-  </si>
-  <si>
-    <t>가능</t>
-  </si>
-  <si>
-    <t>하세</t>
-  </si>
-  <si>
-    <t>양재</t>
-  </si>
-  <si>
-    <t>답변</t>
-  </si>
-  <si>
-    <t>중</t>
-  </si>
-  <si>
-    <t>전</t>
-  </si>
-  <si>
-    <t>로그</t>
-  </si>
-  <si>
-    <t>후</t>
-  </si>
-  <si>
-    <t>송</t>
-  </si>
-  <si>
-    <t>주세</t>
-  </si>
-  <si>
-    <t>주말</t>
-  </si>
-  <si>
-    <t>파일</t>
-  </si>
-  <si>
-    <t>사거리</t>
-  </si>
-  <si>
-    <t>안녕하</t>
-  </si>
-  <si>
-    <t>인</t>
-  </si>
-  <si>
-    <t>길</t>
-  </si>
-  <si>
-    <t>광주</t>
-  </si>
-  <si>
-    <t>미</t>
-  </si>
-  <si>
-    <t>운영</t>
-  </si>
-  <si>
-    <t>금</t>
-  </si>
-  <si>
-    <t>휴일</t>
-  </si>
-  <si>
-    <t>인원</t>
-  </si>
-  <si>
-    <t>대</t>
-  </si>
-  <si>
-    <t>성남</t>
-  </si>
-  <si>
-    <t>아침</t>
-  </si>
-  <si>
-    <t>장소</t>
-  </si>
-  <si>
-    <t>일</t>
-  </si>
-  <si>
-    <t>표</t>
-  </si>
-  <si>
-    <t>토요일</t>
-  </si>
-  <si>
-    <t>정보</t>
-  </si>
-  <si>
-    <t>하이닉스</t>
-  </si>
-  <si>
-    <t>지도</t>
+    <t>어떻</t>
+  </si>
+  <si>
+    <t>캠퍼스</t>
+  </si>
+  <si>
+    <t>면</t>
+  </si>
+  <si>
+    <t>불만</t>
+  </si>
+  <si>
+    <t>돈</t>
+  </si>
+  <si>
+    <t>코너</t>
+  </si>
+  <si>
+    <t>질</t>
+  </si>
+  <si>
+    <t>샐러드</t>
   </si>
 </sst>
 </file>
@@ -699,7 +699,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>1627</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -710,7 +710,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>696</v>
+        <v>662</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -721,7 +721,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -732,7 +732,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>525</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -743,7 +743,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>518</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -754,7 +754,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>494</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -765,7 +765,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>437</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -776,7 +776,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>423</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -787,7 +787,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -798,7 +798,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -809,7 +809,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>295</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -820,7 +820,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>282</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -831,7 +831,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>277</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -842,7 +842,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>269</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -853,7 +853,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>266</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -864,7 +864,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>262</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -875,7 +875,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>244</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -886,7 +886,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>239</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -897,7 +897,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>239</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -908,7 +908,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -919,7 +919,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -930,7 +930,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -941,7 +941,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>223</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -952,7 +952,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>223</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -963,7 +963,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -974,7 +974,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -985,7 +985,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -996,7 +996,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1007,7 +1007,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1018,7 +1018,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>178</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1029,7 +1029,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>176</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1040,7 +1040,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>168</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1051,7 +1051,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>163</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1062,7 +1062,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>163</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1073,7 +1073,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>149</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1084,7 +1084,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>149</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1095,7 +1095,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1106,7 +1106,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1117,7 +1117,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1128,7 +1128,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1139,7 +1139,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1150,7 +1150,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1161,7 +1161,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1172,7 +1172,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1183,7 +1183,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1194,7 +1194,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1205,7 +1205,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1216,7 +1216,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1227,7 +1227,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1238,7 +1238,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1249,7 +1249,7 @@
         <v>52</v>
       </c>
       <c r="C52">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1260,7 +1260,7 @@
         <v>53</v>
       </c>
       <c r="C53">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1271,7 +1271,7 @@
         <v>54</v>
       </c>
       <c r="C54">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1282,7 +1282,7 @@
         <v>55</v>
       </c>
       <c r="C55">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1293,7 +1293,7 @@
         <v>56</v>
       </c>
       <c r="C56">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1304,7 +1304,7 @@
         <v>57</v>
       </c>
       <c r="C57">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1315,7 +1315,7 @@
         <v>58</v>
       </c>
       <c r="C58">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1326,7 +1326,7 @@
         <v>59</v>
       </c>
       <c r="C59">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1337,7 +1337,7 @@
         <v>60</v>
       </c>
       <c r="C60">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1348,7 +1348,7 @@
         <v>61</v>
       </c>
       <c r="C61">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1359,7 +1359,7 @@
         <v>62</v>
       </c>
       <c r="C62">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1370,7 +1370,7 @@
         <v>63</v>
       </c>
       <c r="C63">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1381,7 +1381,7 @@
         <v>64</v>
       </c>
       <c r="C64">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1392,7 +1392,7 @@
         <v>65</v>
       </c>
       <c r="C65">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1403,7 +1403,7 @@
         <v>66</v>
       </c>
       <c r="C66">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1414,7 +1414,7 @@
         <v>67</v>
       </c>
       <c r="C67">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1425,7 +1425,7 @@
         <v>68</v>
       </c>
       <c r="C68">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1436,7 +1436,7 @@
         <v>69</v>
       </c>
       <c r="C69">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1447,7 +1447,7 @@
         <v>70</v>
       </c>
       <c r="C70">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1458,7 +1458,7 @@
         <v>71</v>
       </c>
       <c r="C71">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1469,7 +1469,7 @@
         <v>72</v>
       </c>
       <c r="C72">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1480,7 +1480,7 @@
         <v>73</v>
       </c>
       <c r="C73">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1491,7 +1491,7 @@
         <v>74</v>
       </c>
       <c r="C74">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1502,7 +1502,7 @@
         <v>75</v>
       </c>
       <c r="C75">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1513,7 +1513,7 @@
         <v>76</v>
       </c>
       <c r="C76">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1524,7 +1524,7 @@
         <v>77</v>
       </c>
       <c r="C77">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1535,7 +1535,7 @@
         <v>78</v>
       </c>
       <c r="C78">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1557,7 +1557,7 @@
         <v>80</v>
       </c>
       <c r="C80">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1568,7 +1568,7 @@
         <v>81</v>
       </c>
       <c r="C81">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1590,7 +1590,7 @@
         <v>83</v>
       </c>
       <c r="C83">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1612,7 +1612,7 @@
         <v>85</v>
       </c>
       <c r="C85">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1623,7 +1623,7 @@
         <v>86</v>
       </c>
       <c r="C86">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1645,7 +1645,7 @@
         <v>88</v>
       </c>
       <c r="C88">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1656,7 +1656,7 @@
         <v>89</v>
       </c>
       <c r="C89">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1667,7 +1667,7 @@
         <v>90</v>
       </c>
       <c r="C90">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1678,7 +1678,7 @@
         <v>91</v>
       </c>
       <c r="C91">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1689,7 +1689,7 @@
         <v>92</v>
       </c>
       <c r="C92">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1700,7 +1700,7 @@
         <v>93</v>
       </c>
       <c r="C93">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1711,7 +1711,7 @@
         <v>94</v>
       </c>
       <c r="C94">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1722,7 +1722,7 @@
         <v>95</v>
       </c>
       <c r="C95">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1733,7 +1733,7 @@
         <v>96</v>
       </c>
       <c r="C96">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1744,7 +1744,7 @@
         <v>97</v>
       </c>
       <c r="C97">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1755,7 +1755,7 @@
         <v>98</v>
       </c>
       <c r="C98">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1766,7 +1766,7 @@
         <v>99</v>
       </c>
       <c r="C99">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1777,7 +1777,7 @@
         <v>100</v>
       </c>
       <c r="C100">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1788,7 +1788,7 @@
         <v>101</v>
       </c>
       <c r="C101">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/code/content/TOPIC_XLSX/단어빈도수_3.xlsx
+++ b/code/content/TOPIC_XLSX/단어빈도수_3.xlsx
@@ -25,67 +25,82 @@
     <t>식당</t>
   </si>
   <si>
+    <t>없</t>
+  </si>
+  <si>
     <t>메뉴</t>
   </si>
   <si>
-    <t>없</t>
-  </si>
-  <si>
     <t>밥</t>
   </si>
   <si>
+    <t>아침</t>
+  </si>
+  <si>
+    <t>배식</t>
+  </si>
+  <si>
+    <t>식사</t>
+  </si>
+  <si>
+    <t>좋</t>
+  </si>
+  <si>
+    <t>사람</t>
+  </si>
+  <si>
+    <t>중앙</t>
+  </si>
+  <si>
+    <t>빵</t>
+  </si>
+  <si>
+    <t>이용</t>
+  </si>
+  <si>
+    <t>복지관</t>
+  </si>
+  <si>
+    <t>시간</t>
+  </si>
+  <si>
     <t>음식</t>
   </si>
   <si>
+    <t>식</t>
+  </si>
+  <si>
     <t>식단</t>
   </si>
   <si>
-    <t>좋</t>
+    <t>분</t>
   </si>
   <si>
     <t>오늘</t>
   </si>
   <si>
-    <t>식사</t>
+    <t>많</t>
   </si>
   <si>
     <t>맛있</t>
   </si>
   <si>
-    <t>중앙</t>
-  </si>
-  <si>
-    <t>배식</t>
-  </si>
-  <si>
     <t>맛</t>
   </si>
   <si>
-    <t>사람</t>
+    <t>글</t>
+  </si>
+  <si>
+    <t>생각</t>
+  </si>
+  <si>
+    <t>편</t>
   </si>
   <si>
     <t>반찬</t>
   </si>
   <si>
-    <t>복지관</t>
-  </si>
-  <si>
-    <t>식</t>
-  </si>
-  <si>
-    <t>분</t>
-  </si>
-  <si>
-    <t>시간</t>
-  </si>
-  <si>
-    <t>아침</t>
-  </si>
-  <si>
-    <t>많</t>
-  </si>
-  <si>
-    <t>생각</t>
+    <t>의식</t>
   </si>
   <si>
     <t>개선</t>
@@ -94,232 +109,217 @@
     <t>감사</t>
   </si>
   <si>
-    <t>글</t>
+    <t>우유</t>
+  </si>
+  <si>
+    <t>층</t>
+  </si>
+  <si>
+    <t>식권</t>
+  </si>
+  <si>
+    <t>부탁</t>
+  </si>
+  <si>
+    <t>주세</t>
+  </si>
+  <si>
+    <t>관련</t>
+  </si>
+  <si>
+    <t>답변</t>
+  </si>
+  <si>
+    <t>말</t>
+  </si>
+  <si>
+    <t>점심</t>
+  </si>
+  <si>
+    <t>청운</t>
+  </si>
+  <si>
+    <t>라면</t>
+  </si>
+  <si>
+    <t>직원</t>
+  </si>
+  <si>
+    <t>제공</t>
+  </si>
+  <si>
+    <t>안</t>
+  </si>
+  <si>
+    <t>조식</t>
+  </si>
+  <si>
+    <t>중</t>
+  </si>
+  <si>
+    <t>경우</t>
+  </si>
+  <si>
+    <t>그렇</t>
   </si>
   <si>
     <t>국</t>
   </si>
   <si>
-    <t>라면</t>
-  </si>
-  <si>
-    <t>점심</t>
-  </si>
-  <si>
-    <t>주세</t>
-  </si>
-  <si>
-    <t>이용</t>
+    <t>안녕</t>
+  </si>
+  <si>
+    <t>업체</t>
+  </si>
+  <si>
+    <t>고객</t>
+  </si>
+  <si>
+    <t>전</t>
+  </si>
+  <si>
+    <t>중식</t>
+  </si>
+  <si>
+    <t>정도</t>
+  </si>
+  <si>
+    <t>청주</t>
+  </si>
+  <si>
+    <t>문의</t>
+  </si>
+  <si>
+    <t>이렇</t>
+  </si>
+  <si>
+    <t>건의</t>
+  </si>
+  <si>
+    <t>데</t>
+  </si>
+  <si>
+    <t>아주머니</t>
+  </si>
+  <si>
+    <t>바나나</t>
+  </si>
+  <si>
+    <t>앞</t>
+  </si>
+  <si>
+    <t>신경</t>
+  </si>
+  <si>
+    <t>확인</t>
+  </si>
+  <si>
+    <t>기분</t>
+  </si>
+  <si>
+    <t>줄</t>
+  </si>
+  <si>
+    <t>기호</t>
   </si>
   <si>
     <t>김치</t>
   </si>
   <si>
-    <t>말</t>
-  </si>
-  <si>
-    <t>중식</t>
-  </si>
-  <si>
-    <t>그렇</t>
-  </si>
-  <si>
-    <t>신경</t>
-  </si>
-  <si>
-    <t>청운</t>
-  </si>
-  <si>
-    <t>안</t>
-  </si>
-  <si>
-    <t>아주머니</t>
-  </si>
-  <si>
-    <t>정도</t>
-  </si>
-  <si>
-    <t>부탁</t>
-  </si>
-  <si>
-    <t>중</t>
-  </si>
-  <si>
-    <t>청주</t>
+    <t>요즘</t>
+  </si>
+  <si>
+    <t>회사</t>
+  </si>
+  <si>
+    <t>불편</t>
+  </si>
+  <si>
+    <t>일</t>
+  </si>
+  <si>
+    <t>하세</t>
+  </si>
+  <si>
+    <t>양</t>
+  </si>
+  <si>
+    <t>문제</t>
   </si>
   <si>
     <t>영양사</t>
   </si>
   <si>
-    <t>전</t>
-  </si>
-  <si>
-    <t>기분</t>
-  </si>
-  <si>
-    <t>이렇</t>
-  </si>
-  <si>
-    <t>기호</t>
-  </si>
-  <si>
-    <t>관련</t>
-  </si>
-  <si>
-    <t>앞</t>
-  </si>
-  <si>
-    <t>조식</t>
-  </si>
-  <si>
-    <t>요즘</t>
-  </si>
-  <si>
-    <t>업체</t>
+    <t>운영</t>
+  </si>
+  <si>
+    <t>사항</t>
+  </si>
+  <si>
+    <t>어떻</t>
   </si>
   <si>
     <t>기숙사</t>
   </si>
   <si>
-    <t>물</t>
+    <t>수고</t>
+  </si>
+  <si>
+    <t>등</t>
+  </si>
+  <si>
+    <t>번</t>
+  </si>
+  <si>
+    <t>후</t>
+  </si>
+  <si>
+    <t>코너</t>
+  </si>
+  <si>
+    <t>하이닉스</t>
+  </si>
+  <si>
+    <t>한식</t>
+  </si>
+  <si>
+    <t>야식</t>
+  </si>
+  <si>
+    <t>석식</t>
+  </si>
+  <si>
+    <t>저녁</t>
   </si>
   <si>
     <t>고담</t>
   </si>
   <si>
+    <t>종류</t>
+  </si>
+  <si>
+    <t>시</t>
+  </si>
+  <si>
+    <t>준비</t>
+  </si>
+  <si>
+    <t>추가</t>
+  </si>
+  <si>
+    <t>금일</t>
+  </si>
+  <si>
+    <t>안되</t>
+  </si>
+  <si>
     <t>주말</t>
   </si>
   <si>
-    <t>금일</t>
-  </si>
-  <si>
-    <t>한식</t>
-  </si>
-  <si>
-    <t>야식</t>
-  </si>
-  <si>
-    <t>저녁</t>
-  </si>
-  <si>
-    <t>그릇</t>
-  </si>
-  <si>
-    <t>석식</t>
-  </si>
-  <si>
-    <t>건의</t>
-  </si>
-  <si>
-    <t>경우</t>
-  </si>
-  <si>
-    <t>데</t>
-  </si>
-  <si>
-    <t>회사</t>
-  </si>
-  <si>
-    <t>일</t>
-  </si>
-  <si>
-    <t>문제</t>
-  </si>
-  <si>
-    <t>수고</t>
-  </si>
-  <si>
-    <t>위생</t>
-  </si>
-  <si>
-    <t>직원</t>
-  </si>
-  <si>
-    <t>볶음</t>
-  </si>
-  <si>
-    <t>후</t>
-  </si>
-  <si>
-    <t>안녕</t>
-  </si>
-  <si>
-    <t>번</t>
-  </si>
-  <si>
-    <t>빵</t>
-  </si>
-  <si>
-    <t>고기</t>
-  </si>
-  <si>
-    <t>조리</t>
-  </si>
-  <si>
-    <t>제공</t>
-  </si>
-  <si>
-    <t>친절</t>
-  </si>
-  <si>
-    <t>준비</t>
-  </si>
-  <si>
-    <t>양</t>
-  </si>
-  <si>
-    <t>시</t>
-  </si>
-  <si>
-    <t>다르</t>
-  </si>
-  <si>
-    <t>하세</t>
-  </si>
-  <si>
-    <t>터</t>
-  </si>
-  <si>
-    <t>답변</t>
-  </si>
-  <si>
-    <t>층</t>
-  </si>
-  <si>
-    <t>영양</t>
-  </si>
-  <si>
-    <t>관리</t>
-  </si>
-  <si>
-    <t>어제</t>
-  </si>
-  <si>
-    <t>확인</t>
-  </si>
-  <si>
-    <t>어떻</t>
-  </si>
-  <si>
-    <t>캠퍼스</t>
-  </si>
-  <si>
-    <t>면</t>
-  </si>
-  <si>
-    <t>불만</t>
-  </si>
-  <si>
-    <t>돈</t>
-  </si>
-  <si>
-    <t>코너</t>
-  </si>
-  <si>
-    <t>질</t>
-  </si>
-  <si>
-    <t>샐러드</t>
+    <t>인</t>
+  </si>
+  <si>
+    <t>간</t>
   </si>
 </sst>
 </file>
@@ -699,7 +699,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>1297</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -710,7 +710,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>662</v>
+        <v>871</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -721,7 +721,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>555</v>
+        <v>835</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -732,7 +732,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>478</v>
+        <v>626</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -743,7 +743,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>395</v>
+        <v>577</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -754,7 +754,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>355</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -765,7 +765,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>355</v>
+        <v>546</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -776,7 +776,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>352</v>
+        <v>539</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -787,7 +787,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>350</v>
+        <v>523</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -798,7 +798,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>349</v>
+        <v>522</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -809,7 +809,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>349</v>
+        <v>508</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -820,7 +820,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>344</v>
+        <v>464</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -831,7 +831,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>330</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -842,7 +842,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>323</v>
+        <v>446</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -853,7 +853,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>302</v>
+        <v>435</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -864,7 +864,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>291</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -875,7 +875,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>282</v>
+        <v>428</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -886,7 +886,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>270</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -897,7 +897,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>252</v>
+        <v>408</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -908,7 +908,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>242</v>
+        <v>389</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -919,7 +919,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>236</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -930,7 +930,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>225</v>
+        <v>374</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -941,7 +941,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>208</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -952,7 +952,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>206</v>
+        <v>354</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -963,7 +963,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>195</v>
+        <v>351</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -974,7 +974,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>179</v>
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -985,7 +985,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>176</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -996,7 +996,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>169</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1007,7 +1007,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>166</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1018,7 +1018,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>150</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1029,7 +1029,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>146</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1040,7 +1040,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>144</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1051,7 +1051,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>143</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1062,7 +1062,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>142</v>
+        <v>236</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1073,7 +1073,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>129</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1084,7 +1084,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>129</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1095,7 +1095,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>129</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1106,7 +1106,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>129</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1117,7 +1117,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>128</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1128,7 +1128,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>127</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1139,7 +1139,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>122</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1150,7 +1150,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>121</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1161,7 +1161,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>120</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1172,7 +1172,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>114</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1183,7 +1183,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>112</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1194,7 +1194,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>111</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1205,7 +1205,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>110</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1216,7 +1216,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>109</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1227,7 +1227,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>107</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1238,7 +1238,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>107</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1249,7 +1249,7 @@
         <v>52</v>
       </c>
       <c r="C52">
-        <v>105</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1260,7 +1260,7 @@
         <v>53</v>
       </c>
       <c r="C53">
-        <v>104</v>
+        <v>184</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1271,7 +1271,7 @@
         <v>54</v>
       </c>
       <c r="C54">
-        <v>102</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1282,7 +1282,7 @@
         <v>55</v>
       </c>
       <c r="C55">
-        <v>101</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1293,7 +1293,7 @@
         <v>56</v>
       </c>
       <c r="C56">
-        <v>100</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1304,7 +1304,7 @@
         <v>57</v>
       </c>
       <c r="C57">
-        <v>99</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1315,7 +1315,7 @@
         <v>58</v>
       </c>
       <c r="C58">
-        <v>97</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1326,7 +1326,7 @@
         <v>59</v>
       </c>
       <c r="C59">
-        <v>96</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1337,7 +1337,7 @@
         <v>60</v>
       </c>
       <c r="C60">
-        <v>96</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1348,7 +1348,7 @@
         <v>61</v>
       </c>
       <c r="C61">
-        <v>95</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1359,7 +1359,7 @@
         <v>62</v>
       </c>
       <c r="C62">
-        <v>93</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1370,7 +1370,7 @@
         <v>63</v>
       </c>
       <c r="C63">
-        <v>89</v>
+        <v>156</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1381,7 +1381,7 @@
         <v>64</v>
       </c>
       <c r="C64">
-        <v>89</v>
+        <v>155</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1392,7 +1392,7 @@
         <v>65</v>
       </c>
       <c r="C65">
-        <v>88</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1403,7 +1403,7 @@
         <v>66</v>
       </c>
       <c r="C66">
-        <v>87</v>
+        <v>154</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1414,7 +1414,7 @@
         <v>67</v>
       </c>
       <c r="C67">
-        <v>86</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1425,7 +1425,7 @@
         <v>68</v>
       </c>
       <c r="C68">
-        <v>85</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1436,7 +1436,7 @@
         <v>69</v>
       </c>
       <c r="C69">
-        <v>84</v>
+        <v>149</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1447,7 +1447,7 @@
         <v>70</v>
       </c>
       <c r="C70">
-        <v>83</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1458,7 +1458,7 @@
         <v>71</v>
       </c>
       <c r="C71">
-        <v>82</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1469,7 +1469,7 @@
         <v>72</v>
       </c>
       <c r="C72">
-        <v>82</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1480,7 +1480,7 @@
         <v>73</v>
       </c>
       <c r="C73">
-        <v>82</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1491,7 +1491,7 @@
         <v>74</v>
       </c>
       <c r="C74">
-        <v>82</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1502,7 +1502,7 @@
         <v>75</v>
       </c>
       <c r="C75">
-        <v>80</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1513,7 +1513,7 @@
         <v>76</v>
       </c>
       <c r="C76">
-        <v>80</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1524,7 +1524,7 @@
         <v>77</v>
       </c>
       <c r="C77">
-        <v>80</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1535,7 +1535,7 @@
         <v>78</v>
       </c>
       <c r="C78">
-        <v>79</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1546,7 +1546,7 @@
         <v>79</v>
       </c>
       <c r="C79">
-        <v>78</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1557,7 +1557,7 @@
         <v>80</v>
       </c>
       <c r="C80">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1568,7 +1568,7 @@
         <v>81</v>
       </c>
       <c r="C81">
-        <v>77</v>
+        <v>127</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1579,7 +1579,7 @@
         <v>82</v>
       </c>
       <c r="C82">
-        <v>76</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1590,7 +1590,7 @@
         <v>83</v>
       </c>
       <c r="C83">
-        <v>76</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1601,7 +1601,7 @@
         <v>84</v>
       </c>
       <c r="C84">
-        <v>75</v>
+        <v>126</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1612,7 +1612,7 @@
         <v>85</v>
       </c>
       <c r="C85">
-        <v>74</v>
+        <v>125</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1623,7 +1623,7 @@
         <v>86</v>
       </c>
       <c r="C86">
-        <v>72</v>
+        <v>124</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1634,7 +1634,7 @@
         <v>87</v>
       </c>
       <c r="C87">
-        <v>71</v>
+        <v>122</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1645,7 +1645,7 @@
         <v>88</v>
       </c>
       <c r="C88">
-        <v>70</v>
+        <v>120</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1656,7 +1656,7 @@
         <v>89</v>
       </c>
       <c r="C89">
-        <v>70</v>
+        <v>120</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1667,7 +1667,7 @@
         <v>90</v>
       </c>
       <c r="C90">
-        <v>69</v>
+        <v>119</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1678,7 +1678,7 @@
         <v>91</v>
       </c>
       <c r="C91">
-        <v>69</v>
+        <v>119</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1689,7 +1689,7 @@
         <v>92</v>
       </c>
       <c r="C92">
-        <v>68</v>
+        <v>119</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1700,7 +1700,7 @@
         <v>93</v>
       </c>
       <c r="C93">
-        <v>67</v>
+        <v>118</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1711,7 +1711,7 @@
         <v>94</v>
       </c>
       <c r="C94">
-        <v>67</v>
+        <v>116</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1722,7 +1722,7 @@
         <v>95</v>
       </c>
       <c r="C95">
-        <v>67</v>
+        <v>116</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1733,7 +1733,7 @@
         <v>96</v>
       </c>
       <c r="C96">
-        <v>67</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1744,7 +1744,7 @@
         <v>97</v>
       </c>
       <c r="C97">
-        <v>67</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1755,7 +1755,7 @@
         <v>98</v>
       </c>
       <c r="C98">
-        <v>67</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1766,7 +1766,7 @@
         <v>99</v>
       </c>
       <c r="C99">
-        <v>66</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1777,7 +1777,7 @@
         <v>100</v>
       </c>
       <c r="C100">
-        <v>65</v>
+        <v>108</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1788,7 +1788,7 @@
         <v>101</v>
       </c>
       <c r="C101">
-        <v>64</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
